--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_6_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_6_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.289549702593056e-16</v>
+        <v>1.801578944625001e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>54.76264572573289</v>
+        <v>45.34990817767195</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.80771154828247, 64.7175799031833]</t>
+          <t>[35.813706615624525, 54.88610973971937]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.855395060678656</v>
+        <v>1.817658211986888</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6667108172198093, 2.0440793041375036]</t>
+          <t>[1.591237119836273, 2.0440793041375036]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.4476601922115</v>
+        <v>64.00163700583423</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.78842684595358, 71.10689353846942]</t>
+          <t>[58.577744732761346, 69.4255292789071]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.94110110110132</v>
+        <v>17.09969969969993</v>
       </c>
       <c r="X2" t="n">
-        <v>16.21917917917939</v>
+        <v>16.23267267267289</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.66302302302326</v>
+        <v>17.96672672672696</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.42000000000038</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>5.56851673793182e-16</v>
+        <v>1.801578944625001e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.01786714785234</v>
+        <v>53.04156095954623</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.80984269676653, 58.22589159893814]</t>
+          <t>[42.90418885454193, 63.178933064550534]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.992007221626409e-15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.992007221626409e-15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.08813211794312</v>
+        <v>1.528342372016656</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.8239741771007347, 3.3522900587855045]</t>
+          <t>[1.3145002294299628, 1.7421845146033492]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>65.47830345231017</v>
+        <v>62.11733638749115</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.30437595758845, 72.6522309470319]</t>
+          <t>[55.512810369681944, 68.72186240530036]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.41777777777797</v>
+        <v>18.07135135135157</v>
       </c>
       <c r="X3" t="n">
-        <v>11.39111111111129</v>
+        <v>17.25861861861883</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.44444444444465</v>
+        <v>18.88408408408432</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_6_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_6_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.801578944625001e-16</v>
+        <v>2.597012923099781e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.34990817767195</v>
+        <v>46.65187123365212</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.813706615624525, 54.88610973971937]</t>
+          <t>[37.68828446079928, 55.61545800650495]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.817658211986888</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.591237119836273, 2.0440793041375036]</t>
+          <t>[1.2767633807381937, 1.679289766783734]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.00163700583423</v>
+        <v>65.23838786077685</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.577744732761346, 69.4255292789071]</t>
+          <t>[59.64349837819596, 70.83327734335775]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.09969969969993</v>
+        <v>18.21669669669691</v>
       </c>
       <c r="X2" t="n">
-        <v>16.23267267267289</v>
+        <v>17.4536936936939</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.96672672672696</v>
+        <v>18.97969969969993</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.88000000000029</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.801578944625001e-16</v>
+        <v>2.597012923099781e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>53.04156095954623</v>
+        <v>48.36787352934615</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.90418885454193, 63.178933064550534]</t>
+          <t>[35.033426057806835, 61.70232100088546]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.096811530487685e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.096811530487685e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.528342372016656</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3145002294299628, 1.7421845146033492]</t>
+          <t>[2.006342455445732, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.11733638749115</v>
+        <v>67.20094246826187</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.512810369681944, 68.72186240530036]</t>
+          <t>[60.23976230522738, 74.16212263129637]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.07135135135157</v>
+        <v>15.4422822822825</v>
       </c>
       <c r="X3" t="n">
-        <v>17.25861861861883</v>
+        <v>14.42570570570591</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.88408408408432</v>
+        <v>16.4588588588591</v>
       </c>
     </row>
   </sheetData>
